--- a/Experiments/Measurements/Two Banners Back 2 Back/Straight Path/Antenna_2/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Back 2 Back/Straight Path/Antenna_2/Transformed_Coordinates.xlsx
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>67.08680905900152</v>
+        <v>67.08680905900177</v>
       </c>
       <c r="H2" t="n">
         <v>117.2527476869325</v>
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>150.5344069075578</v>
+        <v>150.534406907558</v>
       </c>
       <c r="H3" t="n">
-        <v>117.2172691860367</v>
+        <v>117.2172691860368</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>121.3943730619828</v>
+        <v>121.3943730619829</v>
       </c>
       <c r="H4" t="n">
-        <v>117.1455681627096</v>
+        <v>117.1455681627097</v>
       </c>
     </row>
     <row r="5">
@@ -592,7 +592,7 @@
         <v>105.4407643179487</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2617903035399</v>
+        <v>117.2617903035398</v>
       </c>
     </row>
     <row r="6">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>98.00892393435591</v>
+        <v>98.00892393435596</v>
       </c>
       <c r="H6" t="n">
-        <v>102.9333426896528</v>
+        <v>102.9333426896527</v>
       </c>
     </row>
     <row r="7">
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>126.6645508698858</v>
+        <v>126.6645508698861</v>
       </c>
       <c r="H7" t="n">
-        <v>102.6532552933896</v>
+        <v>102.6532552933897</v>
       </c>
     </row>
     <row r="8">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>111.0522386321777</v>
+        <v>111.052238632178</v>
       </c>
       <c r="H8" t="n">
-        <v>93.01803984785516</v>
+        <v>93.01803984785519</v>
       </c>
     </row>
     <row r="9">
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>147.4947924268837</v>
+        <v>147.4947924268839</v>
       </c>
       <c r="H9" t="n">
-        <v>92.9119806679543</v>
+        <v>92.91198066795441</v>
       </c>
     </row>
     <row r="10">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>130.8495516181679</v>
+        <v>130.8495516181681</v>
       </c>
       <c r="H10" t="n">
-        <v>92.98315019295413</v>
+        <v>92.98315019295424</v>
       </c>
     </row>
     <row r="11">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>110.8306730946627</v>
+        <v>110.8306730946628</v>
       </c>
       <c r="H11" t="n">
-        <v>92.92876466760403</v>
+        <v>92.92876466760393</v>
       </c>
     </row>
     <row r="12">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>110.1338571377243</v>
+        <v>110.1338571377244</v>
       </c>
       <c r="H12" t="n">
-        <v>89.52034105286153</v>
+        <v>89.52034105286143</v>
       </c>
     </row>
     <row r="13">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>109.4558530651962</v>
+        <v>109.4558530651965</v>
       </c>
       <c r="H13" t="n">
-        <v>89.37003148448329</v>
+        <v>89.37003148448332</v>
       </c>
     </row>
     <row r="14">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>135.7358472980487</v>
+        <v>135.735847298049</v>
       </c>
       <c r="H14" t="n">
-        <v>92.49334163065332</v>
+        <v>92.49334163065336</v>
       </c>
     </row>
     <row r="15">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>148.0524101954273</v>
+        <v>148.0524101954275</v>
       </c>
       <c r="H15" t="n">
-        <v>92.51368513552167</v>
+        <v>92.51368513552178</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>121.5198567457633</v>
+        <v>121.5198567457635</v>
       </c>
       <c r="H16" t="n">
-        <v>92.45819195861566</v>
+        <v>92.45819195861579</v>
       </c>
     </row>
     <row r="17">
@@ -952,7 +952,7 @@
         <v>110.509127913142</v>
       </c>
       <c r="H17" t="n">
-        <v>92.68675179855882</v>
+        <v>92.68675179855872</v>
       </c>
     </row>
     <row r="18">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>101.5607015936207</v>
+        <v>101.5607015936208</v>
       </c>
       <c r="H18" t="n">
-        <v>101.9612913607241</v>
+        <v>101.961291360724</v>
       </c>
     </row>
     <row r="19">
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>113.5598499893695</v>
+        <v>113.5598499893697</v>
       </c>
       <c r="H19" t="n">
         <v>101.8941791479491</v>
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>129.7523122139367</v>
+        <v>129.752312213937</v>
       </c>
       <c r="H20" t="n">
-        <v>116.0282594398744</v>
+        <v>116.0282594398745</v>
       </c>
     </row>
     <row r="21">
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>107.3763964269401</v>
+        <v>107.3763964269402</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9686896270133</v>
+        <v>115.9686896270134</v>
       </c>
     </row>
     <row r="22">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>123.3937010433503</v>
+        <v>123.3937010433505</v>
       </c>
       <c r="H22" t="n">
-        <v>116.6280673711345</v>
+        <v>116.6280673711346</v>
       </c>
     </row>
     <row r="23">
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>110.2859153017371</v>
+        <v>110.2859153017372</v>
       </c>
       <c r="H23" t="n">
-        <v>116.5437887501595</v>
+        <v>116.5437887501594</v>
       </c>
     </row>
     <row r="24">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>108.5397924929182</v>
+        <v>108.5397924929178</v>
       </c>
       <c r="H24" t="n">
-        <v>99.46407343241415</v>
+        <v>99.46407343241393</v>
       </c>
     </row>
     <row r="25">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>141.0066728136184</v>
+        <v>141.0066728136186</v>
       </c>
       <c r="H25" t="n">
-        <v>105.2190784934934</v>
+        <v>105.2190784934935</v>
       </c>
     </row>
     <row r="26">
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>123.6225647467164</v>
+        <v>123.6225647467166</v>
       </c>
       <c r="H26" t="n">
-        <v>100.2577800076482</v>
+        <v>100.2577800076483</v>
       </c>
     </row>
     <row r="27">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>137.5313382495167</v>
+        <v>137.5313382495169</v>
       </c>
       <c r="H29" t="n">
-        <v>89.88164426560901</v>
+        <v>89.88164426560914</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>138.3614468584409</v>
+        <v>138.3614468584411</v>
       </c>
       <c r="H30" t="n">
-        <v>90.40809399458243</v>
+        <v>90.40809399458256</v>
       </c>
     </row>
     <row r="31">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>60.75150523567703</v>
+        <v>60.75150523567722</v>
       </c>
       <c r="H31" t="n">
-        <v>110.9628888395378</v>
+        <v>110.962888839538</v>
       </c>
     </row>
     <row r="32">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>121.5795517807336</v>
+        <v>121.5795517807332</v>
       </c>
       <c r="H33" t="n">
-        <v>100.2542039887198</v>
+        <v>100.2542039887196</v>
       </c>
     </row>
     <row r="34">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>98.60867926755571</v>
+        <v>98.60867926755535</v>
       </c>
       <c r="H34" t="n">
-        <v>89.71967518232368</v>
+        <v>89.71967518232344</v>
       </c>
     </row>
     <row r="35">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>111.0850156873592</v>
+        <v>111.0850156873593</v>
       </c>
       <c r="H36" t="n">
-        <v>90.25240230807368</v>
+        <v>90.25240230807381</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>117.6294815689873</v>
+        <v>117.6294815689869</v>
       </c>
       <c r="H37" t="n">
-        <v>89.85418519933097</v>
+        <v>89.85418519933071</v>
       </c>
     </row>
     <row r="38">
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>140.7566751741568</v>
+        <v>140.756675174157</v>
       </c>
       <c r="H39" t="n">
-        <v>108.049924441362</v>
+        <v>108.0499244413621</v>
       </c>
     </row>
     <row r="40">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>126.1868379248739</v>
+        <v>126.1868379248738</v>
       </c>
       <c r="H40" t="n">
-        <v>101.8275824888459</v>
+        <v>101.8275824888457</v>
       </c>
     </row>
     <row r="41">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>140.6979358087755</v>
+        <v>140.6979358087757</v>
       </c>
       <c r="H42" t="n">
-        <v>98.19752257739381</v>
+        <v>98.19752257739394</v>
       </c>
     </row>
     <row r="43">
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>116.4112111858777</v>
+        <v>116.4112111858774</v>
       </c>
       <c r="H44" t="n">
-        <v>110.0000181441768</v>
+        <v>110.0000181441766</v>
       </c>
     </row>
     <row r="45">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>136.1258167967287</v>
+        <v>136.1258167967289</v>
       </c>
       <c r="H47" t="n">
-        <v>95.54710415400658</v>
+        <v>95.54710415400669</v>
       </c>
     </row>
     <row r="48">
@@ -1909,10 +1909,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>155.8592461614897</v>
+        <v>155.8592461614899</v>
       </c>
       <c r="H49" t="n">
-        <v>90.66665378865427</v>
+        <v>90.6666537886544</v>
       </c>
     </row>
     <row r="50">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>125.6309264839796</v>
+        <v>125.6309264839792</v>
       </c>
       <c r="H50" t="n">
-        <v>122.7288488241076</v>
+        <v>122.7288488241074</v>
       </c>
     </row>
     <row r="51">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>68.14196231215291</v>
+        <v>68.1419623121531</v>
       </c>
       <c r="H51" t="n">
-        <v>130.0303450057418</v>
+        <v>130.0303450057419</v>
       </c>
     </row>
     <row r="52">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>51.75287099959348</v>
+        <v>51.7528709995933</v>
       </c>
       <c r="H52" t="n">
-        <v>90.39066514238746</v>
+        <v>90.39066514238741</v>
       </c>
     </row>
     <row r="53">
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>40.24295922170401</v>
+        <v>40.24295922170364</v>
       </c>
       <c r="H53" t="n">
-        <v>90.58897820286147</v>
+        <v>90.58897820286133</v>
       </c>
     </row>
     <row r="54">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>131.4821547876557</v>
+        <v>131.4821547876559</v>
       </c>
       <c r="H54" t="n">
-        <v>90.60347906781244</v>
+        <v>90.60347906781251</v>
       </c>
     </row>
     <row r="55">
@@ -2145,10 +2145,10 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>69.96492244893331</v>
+        <v>69.96492244893312</v>
       </c>
       <c r="H57" t="n">
-        <v>70.65690137434278</v>
+        <v>70.6569013743427</v>
       </c>
     </row>
     <row r="58">
@@ -2175,10 +2175,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>110.1767637183676</v>
+        <v>110.1767637183674</v>
       </c>
       <c r="H58" t="n">
-        <v>55.3737433901221</v>
+        <v>55.37374339012199</v>
       </c>
     </row>
     <row r="59">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>136.150445877906</v>
+        <v>136.1504458779056</v>
       </c>
       <c r="H59" t="n">
-        <v>55.50880890588653</v>
+        <v>55.5088089058863</v>
       </c>
     </row>
     <row r="60">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>131.5705426855789</v>
+        <v>131.5705426855791</v>
       </c>
       <c r="H60" t="n">
-        <v>55.91427156485116</v>
+        <v>55.91427156485128</v>
       </c>
     </row>
     <row r="61">
@@ -2325,10 +2325,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>51.90530194556595</v>
+        <v>51.90530194556576</v>
       </c>
       <c r="H63" t="n">
-        <v>49.2715579142748</v>
+        <v>49.27155791427467</v>
       </c>
     </row>
     <row r="64">
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>126.7706129118245</v>
+        <v>126.7706129118243</v>
       </c>
       <c r="H64" t="n">
-        <v>54.50903275860242</v>
+        <v>54.5090327586023</v>
       </c>
     </row>
     <row r="65">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>107.6175881607712</v>
+        <v>107.6175881607708</v>
       </c>
       <c r="H65" t="n">
-        <v>54.73893272187101</v>
+        <v>54.73893272187079</v>
       </c>
     </row>
     <row r="66">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>131.3780809828542</v>
+        <v>131.3780809828544</v>
       </c>
       <c r="H66" t="n">
-        <v>55.2816425736911</v>
+        <v>55.28164257369121</v>
       </c>
     </row>
     <row r="67">
@@ -2505,10 +2505,10 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>96.24808581580589</v>
+        <v>96.24808581580571</v>
       </c>
       <c r="H69" t="n">
-        <v>69.31038609265208</v>
+        <v>69.31038609265198</v>
       </c>
     </row>
     <row r="70">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>120.6878814293916</v>
+        <v>120.6878814293914</v>
       </c>
       <c r="H70" t="n">
-        <v>89.2986297225432</v>
+        <v>89.29862972254313</v>
       </c>
     </row>
     <row r="71">
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>132.7950187661273</v>
+        <v>132.7950187661269</v>
       </c>
       <c r="H71" t="n">
-        <v>89.59106281937321</v>
+        <v>89.59106281937306</v>
       </c>
     </row>
     <row r="72">
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>131.4605824369174</v>
+        <v>131.4605824369176</v>
       </c>
       <c r="H72" t="n">
-        <v>89.49465175750466</v>
+        <v>89.49465175750473</v>
       </c>
     </row>
     <row r="73">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>98.44102597362343</v>
+        <v>98.44102597362381</v>
       </c>
       <c r="H74" t="n">
-        <v>51.23605321693124</v>
+        <v>51.23605321693149</v>
       </c>
     </row>
     <row r="75">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>121.3381987573594</v>
+        <v>121.3381987573596</v>
       </c>
       <c r="H75" t="n">
-        <v>98.00553792266477</v>
+        <v>98.00553792266484</v>
       </c>
     </row>
     <row r="76">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>148.4802732174661</v>
+        <v>148.4802732174658</v>
       </c>
       <c r="H76" t="n">
-        <v>102.1191750528777</v>
+        <v>102.1191750528776</v>
       </c>
     </row>
     <row r="77">
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>72.90237355394576</v>
+        <v>72.90237355394613</v>
       </c>
       <c r="H77" t="n">
-        <v>97.82070687049897</v>
+        <v>97.82070687049909</v>
       </c>
     </row>
     <row r="78">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>88.14246855481777</v>
+        <v>88.1424685548174</v>
       </c>
       <c r="H78" t="n">
-        <v>78.26848159896065</v>
+        <v>78.26848159896048</v>
       </c>
     </row>
     <row r="79">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>120.9009897979763</v>
+        <v>120.9009897979761</v>
       </c>
       <c r="H79" t="n">
-        <v>78.63876555983371</v>
+        <v>78.63876555983363</v>
       </c>
     </row>
     <row r="80">
@@ -2835,10 +2835,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>140.664185394261</v>
+        <v>140.6641853942614</v>
       </c>
       <c r="H80" t="n">
-        <v>67.40554322220709</v>
+        <v>67.40554322220727</v>
       </c>
     </row>
     <row r="81">
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>136.4026683169756</v>
+        <v>136.4026683169755</v>
       </c>
       <c r="H81" t="n">
-        <v>61.11629144966674</v>
+        <v>61.11629144966664</v>
       </c>
     </row>
     <row r="82">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>63.04923303599546</v>
+        <v>63.04923303599565</v>
       </c>
       <c r="H82" t="n">
-        <v>50.44537753012717</v>
+        <v>50.4453775301273</v>
       </c>
     </row>
     <row r="83">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>117.7595216348657</v>
+        <v>117.7595216348659</v>
       </c>
       <c r="H83" t="n">
-        <v>64.29511983883948</v>
+        <v>64.29511983883958</v>
       </c>
     </row>
     <row r="84">
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>94.35679221488081</v>
+        <v>94.3567922148805</v>
       </c>
       <c r="H85" t="n">
-        <v>78.11810906866319</v>
+        <v>78.11810906866296</v>
       </c>
     </row>
     <row r="86">
@@ -3015,10 +3015,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>126.7512983699354</v>
+        <v>126.7512983699358</v>
       </c>
       <c r="H86" t="n">
-        <v>82.22443553806133</v>
+        <v>82.22443553806147</v>
       </c>
     </row>
     <row r="87">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>151.3821586920284</v>
+        <v>151.382158692028</v>
       </c>
       <c r="H88" t="n">
-        <v>49.31355163177932</v>
+        <v>49.31355163177907</v>
       </c>
     </row>
     <row r="89">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>121.3087350688516</v>
+        <v>121.3087350688518</v>
       </c>
       <c r="H90" t="n">
-        <v>51.06491589261604</v>
+        <v>51.06491589261616</v>
       </c>
     </row>
     <row r="91">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>120.6570017791237</v>
+        <v>120.6570017791234</v>
       </c>
       <c r="H91" t="n">
-        <v>51.45213341498103</v>
+        <v>51.45213341498069</v>
       </c>
     </row>
     <row r="92">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>131.5069127614129</v>
+        <v>131.5069127614131</v>
       </c>
       <c r="H92" t="n">
-        <v>51.66453674941245</v>
+        <v>51.66453674941258</v>
       </c>
     </row>
     <row r="93">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>136.5913294852157</v>
+        <v>136.5913294852156</v>
       </c>
       <c r="H93" t="n">
-        <v>49.53964884189047</v>
+        <v>49.53964884189034</v>
       </c>
     </row>
     <row r="94">
@@ -3255,10 +3255,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>110.1823874642203</v>
+        <v>110.1823874642201</v>
       </c>
       <c r="H94" t="n">
-        <v>73.73788681439554</v>
+        <v>73.73788681439544</v>
       </c>
     </row>
     <row r="95">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>110.1481897558377</v>
+        <v>110.1481897558374</v>
       </c>
       <c r="H95" t="n">
-        <v>77.05053311610725</v>
+        <v>77.05053311610702</v>
       </c>
     </row>
     <row r="96">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>141.4603441998042</v>
+        <v>141.4603441998045</v>
       </c>
       <c r="H96" t="n">
-        <v>81.07650230732503</v>
+        <v>81.07650230732519</v>
       </c>
     </row>
     <row r="97">
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>110.8623482400716</v>
+        <v>110.8623482400718</v>
       </c>
       <c r="H97" t="n">
-        <v>57.60036031504518</v>
+        <v>57.60036031504529</v>
       </c>
     </row>
     <row r="98">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>-21.78600980608623</v>
+        <v>-21.78600980608655</v>
       </c>
       <c r="H99" t="n">
-        <v>63.62312956871535</v>
+        <v>63.62312956871507</v>
       </c>
     </row>
     <row r="100">
@@ -3435,10 +3435,10 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>116.0183017674796</v>
+        <v>116.01830176748</v>
       </c>
       <c r="H100" t="n">
-        <v>69.91371938308922</v>
+        <v>69.9137193830894</v>
       </c>
     </row>
     <row r="101">
